--- a/biology/Zoologie/Ephippiochthonius_vachoni/Ephippiochthonius_vachoni.xlsx
+++ b/biology/Zoologie/Ephippiochthonius_vachoni/Ephippiochthonius_vachoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephippiochthonius vachoni est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au France en Nouvelle-Aquitaine et en Provence-Alpes-Côte d'Azur et en Italie en Ligurie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au France en Nouvelle-Aquitaine et en Provence-Alpes-Côte d'Azur et en Italie en Ligurie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Gardini en 2013 mesure 1,1 mm et les femelles de 1,2 à 1,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Gardini en 2013 mesure 1,1 mm et les femelles de 1,2 à 1,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heurtault-Rossi, 1963 : Description de Chthonius (E.) vachoni, nouvelle espèce de Pseudoscorpions (Heterosphyronida, Chthoniidae) découverte en France, dans le Département de la Gironde. Bulletin du Muséum National d'Histoire Naturelle, Paris, sér. 2, vol. 35, p. 419-428.</t>
         </is>
